--- a/Daily_Work/Daily Purchase.xlsx
+++ b/Daily_Work/Daily Purchase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BB493B-7D1F-48C0-B4B5-DF0B203F92A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB8F39E-E9D5-410D-AC6E-49C312272699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8195,8 +8195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F8E598-E80A-4412-9C2F-FEC2F1AA4924}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8531,8 +8531,12 @@
       <c r="B11" s="3">
         <v>45544</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="4">
+        <v>109091</v>
+      </c>
+      <c r="D11" s="4">
+        <v>20000</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -8546,7 +8550,9 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="R11" s="4">
+        <v>109428</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -8555,7 +8561,9 @@
       <c r="B12" s="3">
         <v>45545</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>218181</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -8570,7 +8578,9 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="4">
+        <v>220683</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -8579,7 +8589,9 @@
       <c r="B13" s="3">
         <v>45546</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4">
+        <v>155844</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -8594,7 +8606,9 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="R13" s="4">
+        <v>132321</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -8603,7 +8617,9 @@
       <c r="B14" s="3">
         <v>45547</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <v>332467</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -8618,7 +8634,9 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="R14" s="4">
+        <v>180327</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -8651,7 +8669,9 @@
       <c r="B16" s="3">
         <v>45549</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4">
+        <v>145113</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -8666,7 +8686,9 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="4">
+        <v>117849</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -8675,22 +8697,22 @@
       <c r="B17" s="3">
         <v>45550</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -8699,7 +8721,9 @@
       <c r="B18" s="3">
         <v>45551</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4">
+        <v>51948</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -8712,9 +8736,13 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="P18" s="4">
+        <v>25</v>
+      </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="R18" s="4">
+        <v>260457</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -8723,13 +8751,17 @@
       <c r="B19" s="3">
         <v>45552</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4">
+        <v>51948</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="4">
+        <v>12500</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -8738,7 +8770,9 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="R19" s="4">
+        <v>118337</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -8747,7 +8781,9 @@
       <c r="B20" s="3">
         <v>45553</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <v>187013</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -8762,7 +8798,9 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="R20" s="4">
+        <v>118931</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -8771,7 +8809,9 @@
       <c r="B21" s="3">
         <v>45554</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4">
+        <v>415584</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -8786,7 +8826,9 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="R21" s="4">
+        <v>210484</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -8834,7 +8876,9 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
+      <c r="R23" s="4">
+        <v>92247</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -8843,13 +8887,17 @@
       <c r="B24" s="3">
         <v>45557</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4">
+        <v>16223</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="4">
+        <v>17500</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -8858,7 +8906,9 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="R24" s="4">
+        <v>130014</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -8867,7 +8917,9 @@
       <c r="B25" s="3">
         <v>45558</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4">
+        <v>93506</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -8882,7 +8934,9 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="R25" s="4">
+        <v>129506</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -8891,7 +8945,9 @@
       <c r="B26" s="3">
         <v>45559</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4">
+        <v>114285</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -8906,7 +8962,9 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
+      <c r="R26" s="4">
+        <v>133085</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -8915,7 +8973,9 @@
       <c r="B27" s="3">
         <v>45560</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4">
+        <v>166233</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -8930,7 +8990,9 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
+      <c r="R27" s="4">
+        <v>156882</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -8939,22 +9001,30 @@
       <c r="B28" s="3">
         <v>45561</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>214838</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="I28" s="4">
+        <v>14500</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="L28" s="4">
+        <v>1000</v>
+      </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
+      <c r="R28" s="4">
+        <v>208432</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -8987,7 +9057,9 @@
       <c r="B30" s="3">
         <v>45563</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4">
+        <v>134545</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -9002,7 +9074,9 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
+      <c r="R30" s="4">
+        <v>148045</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -9011,7 +9085,9 @@
       <c r="B31" s="3">
         <v>45564</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4">
+        <v>363636</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -9026,7 +9102,9 @@
       <c r="O31" s="2"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
+      <c r="R31" s="4">
+        <v>286325</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -9035,7 +9113,9 @@
       <c r="B32" s="3">
         <v>45565</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>415584</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -9050,7 +9130,9 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
+      <c r="R32" s="4">
+        <v>316365</v>
+      </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -9079,67 +9161,67 @@
       </c>
       <c r="C34" s="7">
         <f t="shared" ref="C34:R34" si="0">SUM(C3:C33)</f>
-        <v>855028</v>
+        <v>4041067</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="7">
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="H34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="7">
+      <c r="I34" s="7">
+        <f t="shared" si="0"/>
+        <v>59000</v>
+      </c>
+      <c r="J34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I34" s="7">
-        <f t="shared" si="0"/>
-        <v>14500</v>
-      </c>
-      <c r="J34" s="7">
+      <c r="K34" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="M34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K34" s="7">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="L34" s="7">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M34" s="7">
+      <c r="N34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N34" s="7">
+      <c r="O34" s="7">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="P34" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O34" s="7">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="P34" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="R34" s="7">
         <f t="shared" si="0"/>
-        <v>1014420</v>
+        <v>4084138</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -9203,7 +9285,7 @@
       <c r="D36" s="14"/>
       <c r="E36" s="8">
         <f>D34*8.81+E34*66.41+F34*47.1625+G34*13.66+H34*13.66+I34*18.31+J34*19.3+K34*27.9368+L34*27.91+M34*48.2</f>
-        <v>312103.05</v>
+        <v>1331008.05</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -9236,7 +9318,7 @@
       </c>
       <c r="E40">
         <f>E36-E38</f>
-        <v>-1074449.95</v>
+        <v>-55544.949999999953</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>

--- a/Daily_Work/Daily Purchase.xlsx
+++ b/Daily_Work/Daily Purchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB8F39E-E9D5-410D-AC6E-49C312272699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC984FAC-811F-4FFA-B5A0-0894EAFA9CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb-24" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="July-24 (6)" sheetId="6" r:id="rId6"/>
     <sheet name="August-24 (7)" sheetId="7" r:id="rId7"/>
     <sheet name="Sept-24 (8)" sheetId="8" r:id="rId8"/>
+    <sheet name="Oct-24 (9)" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="37">
   <si>
     <t>DAILY PURCHASE REPORT</t>
   </si>
@@ -8195,8 +8196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F8E598-E80A-4412-9C2F-FEC2F1AA4924}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9332,4 +9333,1149 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E94B03-DD96-4237-994E-6A95C76276CD}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45566</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4">
+        <v>87371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45567</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4">
+        <v>51429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45568</v>
+      </c>
+      <c r="C5" s="4">
+        <v>233766</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>500</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
+        <v>500</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
+        <v>84977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45569</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45570</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <v>90868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45571</v>
+      </c>
+      <c r="C8" s="4">
+        <v>72727</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>7500</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
+        <v>132415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45572</v>
+      </c>
+      <c r="C9" s="4">
+        <v>121315</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
+        <v>109167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45573</v>
+      </c>
+      <c r="C10" s="4">
+        <v>114285</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
+        <v>119191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45574</v>
+      </c>
+      <c r="C11" s="4">
+        <v>488312</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <v>15000</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4">
+        <v>2000</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <v>10</v>
+      </c>
+      <c r="O11" s="4">
+        <v>100</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4">
+        <v>129072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45575</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4">
+        <v>267777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45576</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45577</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6961</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
+        <v>156343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45578</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45579</v>
+      </c>
+      <c r="C16" s="4">
+        <v>93506</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4">
+        <v>87160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45580</v>
+      </c>
+      <c r="C17" s="4">
+        <v>158961</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4">
+        <v>166805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45581</v>
+      </c>
+      <c r="C18" s="4">
+        <v>120134</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4">
+        <v>118314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45582</v>
+      </c>
+      <c r="C19" s="4">
+        <v>272583</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
+        <v>15000</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4">
+        <v>142010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45583</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45584</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4">
+        <v>90041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45585</v>
+      </c>
+      <c r="C22" s="4">
+        <v>57142</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4">
+        <v>103902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45586</v>
+      </c>
+      <c r="C23" s="4">
+        <v>80000</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4">
+        <v>79568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45587</v>
+      </c>
+      <c r="C24" s="4">
+        <v>116363</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4">
+        <v>115454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45588</v>
+      </c>
+      <c r="C25" s="4">
+        <v>109090</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4">
+        <v>108686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45589</v>
+      </c>
+      <c r="C26" s="4">
+        <v>236945</v>
+      </c>
+      <c r="D26" s="4">
+        <v>15000</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4">
+        <v>9000</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4">
+        <v>136265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45590</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45591</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4">
+        <v>100952</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45592</v>
+      </c>
+      <c r="C29" s="4">
+        <v>209911</v>
+      </c>
+      <c r="D29" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4">
+        <v>6000</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4">
+        <v>113046</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45593</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4">
+        <v>86698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45594</v>
+      </c>
+      <c r="C31" s="4">
+        <v>93506</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4">
+        <v>106788</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45595</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4">
+        <v>6000</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4">
+        <v>107286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45596</v>
+      </c>
+      <c r="C33" s="4">
+        <v>415584</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4">
+        <v>114162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="7">
+        <f t="shared" ref="C34:R34" si="0">SUM(C3:C33)</f>
+        <v>3001091</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="0"/>
+        <v>74000</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O34" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="P34" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="7">
+        <f t="shared" si="0"/>
+        <v>3005747</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="8">
+        <f>D34*8.81+E34*66.41+F34*47.1625+G34*13.66+H34*13.66+I34*18.31+J34*19.3+K34*27.9368+L34*27.91+M34*48.2</f>
+        <v>1672901.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>1750000</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40">
+        <f>E36-E38</f>
+        <v>-77098.199999999953</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="C36:D36"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily_Work/Daily Purchase.xlsx
+++ b/Daily_Work/Daily Purchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC984FAC-811F-4FFA-B5A0-0894EAFA9CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB40AA33-FBB8-4BCD-B596-209DF0E33FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb-24" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="August-24 (7)" sheetId="7" r:id="rId7"/>
     <sheet name="Sept-24 (8)" sheetId="8" r:id="rId8"/>
     <sheet name="Oct-24 (9)" sheetId="9" r:id="rId9"/>
+    <sheet name="Feb-25 (10)" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="37">
   <si>
     <t>DAILY PURCHASE REPORT</t>
   </si>
@@ -1654,6 +1655,1109 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069747FA-2C5C-400B-9D0F-E5F894F09333}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45323</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4">
+        <v>105700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45324</v>
+      </c>
+      <c r="C4" s="4">
+        <v>67974</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>2500</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4">
+        <v>116984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45325</v>
+      </c>
+      <c r="C5" s="4">
+        <v>131407</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
+        <v>122270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45326</v>
+      </c>
+      <c r="C6" s="4">
+        <v>124675</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
+        <v>50</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4">
+        <v>118354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45327</v>
+      </c>
+      <c r="C7" s="4">
+        <v>129937</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <v>500</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <v>133507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45328</v>
+      </c>
+      <c r="C8" s="4">
+        <v>299246</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4">
+        <v>25</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
+        <v>179074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11">
+        <v>45329</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45330</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
+        <v>141480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45331</v>
+      </c>
+      <c r="C11" s="4">
+        <v>140259</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4">
+        <v>147916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45332</v>
+      </c>
+      <c r="C12" s="4">
+        <v>135064</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4">
+        <v>50</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4">
+        <v>128717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45333</v>
+      </c>
+      <c r="C13" s="4">
+        <v>107498</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
+        <v>2500</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <v>500</v>
+      </c>
+      <c r="L13" s="4">
+        <v>500</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4">
+        <v>114900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45334</v>
+      </c>
+      <c r="C14" s="4">
+        <v>135064</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <v>25</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
+        <v>139777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45335</v>
+      </c>
+      <c r="C15" s="4">
+        <v>320441</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4">
+        <v>2500</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4">
+        <v>198645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="11">
+        <v>45336</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45337</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4">
+        <v>99705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45338</v>
+      </c>
+      <c r="C18" s="4">
+        <v>104623</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4">
+        <v>50</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4">
+        <v>118320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45339</v>
+      </c>
+      <c r="C19" s="4">
+        <v>103896</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4">
+        <v>113852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45340</v>
+      </c>
+      <c r="C20" s="4">
+        <v>138580</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4">
+        <v>120085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45341</v>
+      </c>
+      <c r="C21" s="4">
+        <v>124675</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4">
+        <v>149425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45342</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="11">
+        <v>45343</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45344</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45345</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45346</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45347</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45348</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45349</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="11">
+        <v>45350</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="7">
+        <f t="shared" ref="C34:R34" si="0">SUM(C3:C33)</f>
+        <v>2063339</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="O34" s="7">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="P34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="7">
+        <f t="shared" si="0"/>
+        <v>2248711</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="8">
+        <f>D34*8.81+E34*66.41+F34*47.1625+G34*13.66+H34*13.66+I34*18.31+J34*19.3+K34*27.9368+L34*27.91+M34*48.2</f>
+        <v>481776.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>1750000</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40">
+        <f>E36-E38</f>
+        <v>-1268223.2</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="C36:D36"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD4815C-808B-4BA2-ABB2-619F718C23D9}">
   <dimension ref="A1:Q40"/>
@@ -9339,8 +10443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E94B03-DD96-4237-994E-6A95C76276CD}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Daily_Work/Daily Purchase.xlsx
+++ b/Daily_Work/Daily Purchase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB40AA33-FBB8-4BCD-B596-209DF0E33FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6875F438-2161-4160-AB6D-C587671A7DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1659,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069747FA-2C5C-400B-9D0F-E5F894F09333}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,22 +2309,30 @@
       <c r="B22" s="3">
         <v>45342</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <v>315964</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="4">
+        <v>5000</v>
+      </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4">
+        <v>500</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="R22" s="4">
+        <v>199665</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -2372,7 +2380,9 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="R24" s="4">
+        <v>110386</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -2381,7 +2391,9 @@
       <c r="B25" s="3">
         <v>45345</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4">
+        <v>124675</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2396,7 +2408,9 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="R25" s="4">
+        <v>134921</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -2405,7 +2419,9 @@
       <c r="B26" s="3">
         <v>45346</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4">
+        <v>155844</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2420,7 +2436,9 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
+      <c r="R26" s="4">
+        <v>106547</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -2429,13 +2447,17 @@
       <c r="B27" s="3">
         <v>45347</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4">
+        <v>62778</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="I27" s="4">
+        <v>2500</v>
+      </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -2444,7 +2466,9 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
+      <c r="R27" s="4">
+        <v>112699</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -2453,7 +2477,9 @@
       <c r="B28" s="3">
         <v>45348</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>114285</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2468,7 +2494,9 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
+      <c r="R28" s="4">
+        <v>113310</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -2477,7 +2505,9 @@
       <c r="B29" s="3">
         <v>45349</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4">
+        <v>259740</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2492,7 +2522,9 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="R29" s="4">
+        <v>140724</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -2585,7 +2617,7 @@
       </c>
       <c r="C34" s="7">
         <f t="shared" ref="C34:R34" si="0">SUM(C3:C33)</f>
-        <v>2063339</v>
+        <v>3096625</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="0"/>
@@ -2609,7 +2641,7 @@
       </c>
       <c r="I34" s="7">
         <f t="shared" si="0"/>
-        <v>22500</v>
+        <v>30000</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="0"/>
@@ -2617,7 +2649,7 @@
       </c>
       <c r="K34" s="7">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L34" s="7">
         <f t="shared" si="0"/>
@@ -2645,7 +2677,7 @@
       </c>
       <c r="R34" s="7">
         <f t="shared" si="0"/>
-        <v>2248711</v>
+        <v>3166963</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -2709,7 +2741,7 @@
       <c r="D36" s="14"/>
       <c r="E36" s="8">
         <f>D34*8.81+E34*66.41+F34*47.1625+G34*13.66+H34*13.66+I34*18.31+J34*19.3+K34*27.9368+L34*27.91+M34*48.2</f>
-        <v>481776.8</v>
+        <v>633070.19999999995</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -2742,7 +2774,7 @@
       </c>
       <c r="E40">
         <f>E36-E38</f>
-        <v>-1268223.2</v>
+        <v>-1116929.8</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>

--- a/Daily_Work/Daily Purchase.xlsx
+++ b/Daily_Work/Daily Purchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6875F438-2161-4160-AB6D-C587671A7DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC51886-C89A-4C0F-AE81-334E746F5A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb-24" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Sept-24 (8)" sheetId="8" r:id="rId8"/>
     <sheet name="Oct-24 (9)" sheetId="9" r:id="rId9"/>
     <sheet name="Feb-25 (10)" sheetId="10" r:id="rId10"/>
+    <sheet name="March-25 (11)" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="37">
   <si>
     <t>DAILY PURCHASE REPORT</t>
   </si>
@@ -1659,7 +1660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069747FA-2C5C-400B-9D0F-E5F894F09333}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -2786,6 +2787,1022 @@
     <mergeCell ref="C36:D36"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8619A71E-8A69-40A2-8723-76E14989528E}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45352</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45353</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45354</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45355</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45356</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45357</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45358</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45359</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45360</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45361</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45362</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45363</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45364</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45365</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45366</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45367</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45368</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45369</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45370</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45371</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45372</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45373</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45374</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45375</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45376</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45377</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45378</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45379</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3">
+        <v>45380</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3">
+        <v>45381</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3">
+        <v>45382</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="7">
+        <f t="shared" ref="C34:R34" si="0">SUM(C3:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="8">
+        <f>D34*8.81+E34*66.41+F34*47.1625+G34*13.66+H34*13.66+I34*18.31+J34*19.3+K34*27.9368+L34*27.91+M34*48.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>1750000</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40">
+        <f>E36-E38</f>
+        <v>-1750000</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="C36:D36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Daily_Work/Daily Purchase.xlsx
+++ b/Daily_Work/Daily Purchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC51886-C89A-4C0F-AE81-334E746F5A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D4A17D-2419-4E0C-BA37-FA7C796049CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb-24" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Oct-24 (9)" sheetId="9" r:id="rId9"/>
     <sheet name="Feb-25 (10)" sheetId="10" r:id="rId10"/>
     <sheet name="March-25 (11)" sheetId="11" r:id="rId11"/>
+    <sheet name="April-25 (12)" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="37">
   <si>
     <t>DAILY PURCHASE REPORT</t>
   </si>
@@ -2795,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8619A71E-8A69-40A2-8723-76E14989528E}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2912,7 +2913,9 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="R3" s="4">
+        <v>133659</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -2920,6 +2923,1146 @@
       </c>
       <c r="B4" s="3">
         <v>45353</v>
+      </c>
+      <c r="C4" s="4">
+        <v>176981</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>4000</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4">
+        <v>500</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4">
+        <v>50</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4">
+        <v>139463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45354</v>
+      </c>
+      <c r="C5" s="4">
+        <v>124675</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
+        <v>134929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45355</v>
+      </c>
+      <c r="C6" s="4">
+        <v>135064</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
+        <v>5</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4">
+        <v>126724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45356</v>
+      </c>
+      <c r="C7" s="4">
+        <v>114285</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <v>159759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45357</v>
+      </c>
+      <c r="C8" s="4">
+        <v>317481</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>500</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4">
+        <v>50</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
+        <v>183793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45358</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45359</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
+        <v>115348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45360</v>
+      </c>
+      <c r="C11" s="4">
+        <v>122757</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4">
+        <v>136687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45361</v>
+      </c>
+      <c r="C12" s="4">
+        <v>119953</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <v>2500</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
+        <v>25</v>
+      </c>
+      <c r="O12" s="4">
+        <v>25</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4">
+        <v>119017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45362</v>
+      </c>
+      <c r="C13" s="4">
+        <v>118670</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
+        <v>6000</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4">
+        <v>118807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45363</v>
+      </c>
+      <c r="C14" s="4">
+        <v>149012</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
+        <v>2500</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
+        <v>150802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45364</v>
+      </c>
+      <c r="C15" s="4">
+        <v>291907</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4">
+        <v>8000</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4">
+        <v>203484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45365</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45366</v>
+      </c>
+      <c r="C17" s="4">
+        <v>12804</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4">
+        <v>86940</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45367</v>
+      </c>
+      <c r="C18" s="4">
+        <v>105890</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>16000</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
+        <v>5</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4">
+        <v>118953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45368</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4">
+        <v>109506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45369</v>
+      </c>
+      <c r="C20" s="4">
+        <v>218181</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4">
+        <v>114099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45370</v>
+      </c>
+      <c r="C21" s="4">
+        <v>114285</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4">
+        <v>108264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45371</v>
+      </c>
+      <c r="C22" s="4">
+        <v>266862</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
+        <v>6500</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4">
+        <v>15</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4">
+        <v>153377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45372</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45373</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4">
+        <v>89766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45374</v>
+      </c>
+      <c r="C25" s="4">
+        <v>103896</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4">
+        <v>119213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45375</v>
+      </c>
+      <c r="C26" s="4">
+        <v>311688</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4">
+        <v>109346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45376</v>
+      </c>
+      <c r="C27" s="4">
+        <v>415584</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4">
+        <v>351527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45377</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4">
+        <v>534677</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45378</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1166753</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4">
+        <v>856271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45379</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3">
+        <v>45380</v>
+      </c>
+      <c r="C31" s="4">
+        <v>124675</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4">
+        <v>23653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3">
+        <v>45381</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3">
+        <v>45382</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="7">
+        <f t="shared" ref="C34:R34" si="0">SUM(C3:C33)</f>
+        <v>4511403</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="0"/>
+        <v>55500</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="O34" s="7">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="P34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="7">
+        <f t="shared" si="0"/>
+        <v>4498064</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="8">
+        <f>D34*9+E34*69+F34*49+G34*14+H34*14+I34*19+J34*20+K34*29+L34*29+M34*50</f>
+        <v>1112500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>1750000</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40">
+        <f>E36-E38</f>
+        <v>-637500</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="C36:D36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57206B18-20E1-4FAD-AEE9-09CBC6AAECBA}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45383</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45384</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2940,10 +4083,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
-        <v>45354</v>
+        <v>45385</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2963,11 +4106,11 @@
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45355</v>
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="11">
+        <v>45386</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2988,10 +4131,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
-        <v>45356</v>
+        <v>45387</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3012,10 +4155,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3">
-        <v>45357</v>
+        <v>45388</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3035,11 +4178,11 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
+      <c r="A9" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="3">
-        <v>45358</v>
+        <v>45389</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3060,10 +4203,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
-        <v>45359</v>
+        <v>45390</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3084,10 +4227,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3">
-        <v>45360</v>
+        <v>45391</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3108,10 +4251,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
-        <v>45361</v>
+        <v>45392</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3131,11 +4274,11 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3">
-        <v>45362</v>
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="11">
+        <v>45393</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3156,10 +4299,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
-        <v>45363</v>
+        <v>45394</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3180,10 +4323,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3">
-        <v>45364</v>
+        <v>45395</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3203,11 +4346,11 @@
       <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>23</v>
+      <c r="A16" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B16" s="3">
-        <v>45365</v>
+        <v>45396</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3228,10 +4371,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3">
-        <v>45366</v>
+        <v>45397</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3252,10 +4395,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3">
-        <v>45367</v>
+        <v>45398</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3276,10 +4419,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3">
-        <v>45368</v>
+        <v>45399</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3299,11 +4442,11 @@
       <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3">
-        <v>45369</v>
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="11">
+        <v>45400</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3324,10 +4467,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3">
-        <v>45370</v>
+        <v>45401</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3348,10 +4491,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3">
-        <v>45371</v>
+        <v>45402</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -3371,11 +4514,11 @@
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
+      <c r="A23" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B23" s="3">
-        <v>45372</v>
+        <v>45403</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3396,10 +4539,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3">
-        <v>45373</v>
+        <v>45404</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -3420,10 +4563,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3">
-        <v>45374</v>
+        <v>45405</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -3444,10 +4587,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3">
-        <v>45375</v>
+        <v>45406</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3467,11 +4610,11 @@
       <c r="R26" s="4"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="3">
-        <v>45376</v>
+      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="11">
+        <v>45407</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3492,10 +4635,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B28" s="3">
-        <v>45377</v>
+        <v>45408</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -3516,10 +4659,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B29" s="3">
-        <v>45378</v>
+        <v>45409</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3539,11 +4682,11 @@
       <c r="R29" s="4"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>23</v>
+      <c r="A30" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B30" s="3">
-        <v>45379</v>
+        <v>45410</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3563,9 +4706,11 @@
       <c r="R30" s="4"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B31" s="3">
-        <v>45380</v>
+        <v>45411</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="2"/>
@@ -3585,9 +4730,11 @@
       <c r="R31" s="4"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B32" s="3">
-        <v>45381</v>
+        <v>45412</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3608,9 +4755,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="3">
-        <v>45382</v>
-      </c>
+      <c r="B33" s="3"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3758,7 +4903,7 @@
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="8">
-        <f>D34*8.81+E34*66.41+F34*47.1625+G34*13.66+H34*13.66+I34*18.31+J34*19.3+K34*27.9368+L34*27.91+M34*48.2</f>
+        <f>D34*9+E34*69+F34*49+G34*14+H34*14+I34*19+J34*20+K34*29+L34*29+M34*50</f>
         <v>0</v>
       </c>
     </row>
@@ -3803,6 +4948,7 @@
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="C36:D36"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Daily_Work/Daily Purchase.xlsx
+++ b/Daily_Work/Daily Purchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D4A17D-2419-4E0C-BA37-FA7C796049CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F620A0-E52C-4DBF-BFE6-ADE45DA1F32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb-24" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Feb-25 (10)" sheetId="10" r:id="rId10"/>
     <sheet name="March-25 (11)" sheetId="11" r:id="rId11"/>
     <sheet name="April-25 (12)" sheetId="12" r:id="rId12"/>
+    <sheet name="May-25 (13)" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="37">
   <si>
     <t>DAILY PURCHASE REPORT</t>
   </si>
@@ -3938,8 +3939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57206B18-20E1-4FAD-AEE9-09CBC6AAECBA}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4151,7 +4152,9 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="R7" s="4">
+        <v>134300</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -4160,7 +4163,9 @@
       <c r="B8" s="3">
         <v>45388</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4">
+        <v>200000</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -4171,11 +4176,17 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="N8" s="4">
+        <v>10</v>
+      </c>
+      <c r="O8" s="4">
+        <v>100</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="4">
+        <v>160651</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4184,22 +4195,30 @@
       <c r="B9" s="3">
         <v>45389</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>92212</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4">
+        <v>2000</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4">
+        <v>500</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="R9" s="4">
+        <v>102006</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4208,7 +4227,9 @@
       <c r="B10" s="3">
         <v>45390</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>114285</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -4223,7 +4244,9 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="R10" s="4">
+        <v>103873</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -4232,7 +4255,9 @@
       <c r="B11" s="3">
         <v>45391</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4">
+        <v>114285</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -4247,7 +4272,9 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="R11" s="4">
+        <v>113876</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -4256,22 +4283,34 @@
       <c r="B12" s="3">
         <v>45392</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>231901</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4">
+        <v>2000</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4">
+        <v>500</v>
+      </c>
       <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="N12" s="4">
+        <v>20</v>
+      </c>
+      <c r="O12" s="4">
+        <v>50</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="4">
+        <v>141117</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -4319,7 +4358,9 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="R14" s="4">
+        <v>99989</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -4328,7 +4369,9 @@
       <c r="B15" s="3">
         <v>45395</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4">
+        <v>195766</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -4343,7 +4386,9 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="R15" s="4">
+        <v>107067</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -4352,7 +4397,9 @@
       <c r="B16" s="3">
         <v>45396</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4">
+        <v>31240</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -4367,7 +4414,9 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="4">
+        <v>103553</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -4376,7 +4425,9 @@
       <c r="B17" s="3">
         <v>45397</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4">
+        <v>81018</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -4391,7 +4442,9 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="R17" s="4">
+        <v>95978</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -4400,7 +4453,9 @@
       <c r="B18" s="3">
         <v>45398</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4">
+        <v>146909</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -4411,11 +4466,17 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="N18" s="4">
+        <v>35</v>
+      </c>
+      <c r="O18" s="4">
+        <v>50</v>
+      </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="R18" s="4">
+        <v>196462</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -4424,22 +4485,32 @@
       <c r="B19" s="3">
         <v>45399</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4">
+        <v>265690</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="4">
+        <v>2500</v>
+      </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="K19" s="4">
+        <v>500</v>
+      </c>
+      <c r="L19" s="4">
+        <v>500</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="R19" s="4">
+        <v>144864</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -4487,7 +4558,9 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="R21" s="4">
+        <v>89838</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -4496,22 +4569,32 @@
       <c r="B22" s="3">
         <v>45402</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <v>88415</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="4">
+        <v>2500</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="N22" s="4">
+        <v>25</v>
+      </c>
+      <c r="O22" s="4">
+        <v>25</v>
+      </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="R22" s="4">
+        <v>109769</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -4520,7 +4603,9 @@
       <c r="B23" s="3">
         <v>45403</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4">
+        <v>103896</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -4535,7 +4620,9 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
+      <c r="R23" s="4">
+        <v>107970</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -4544,7 +4631,9 @@
       <c r="B24" s="3">
         <v>45404</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4">
+        <v>114285</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -4559,7 +4648,9 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="R24" s="4">
+        <v>111138</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -4568,7 +4659,9 @@
       <c r="B25" s="3">
         <v>45405</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4">
+        <v>124675</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -4583,7 +4676,9 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="R25" s="4">
+        <v>126209</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -4592,22 +4687,32 @@
       <c r="B26" s="3">
         <v>45406</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4">
+        <v>270017</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="4">
+        <v>5000</v>
+      </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="4">
+        <v>500</v>
+      </c>
+      <c r="L26" s="4">
+        <v>500</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
+      <c r="R26" s="4">
+        <v>160545</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -4655,7 +4760,9 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
+      <c r="R28" s="4">
+        <v>103769</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -4664,7 +4771,9 @@
       <c r="B29" s="3">
         <v>45409</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4">
+        <v>103896</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -4679,7 +4788,9 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="R29" s="4">
+        <v>107923</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -4688,22 +4799,30 @@
       <c r="B30" s="3">
         <v>45410</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4">
+        <v>109964</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="4">
+        <v>2000</v>
+      </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="N30" s="4">
+        <v>25</v>
+      </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
+      <c r="R30" s="4">
+        <v>118406</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -4712,7 +4831,9 @@
       <c r="B31" s="3">
         <v>45411</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4">
+        <v>169870</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -4727,7 +4848,9 @@
       <c r="O31" s="2"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
+      <c r="R31" s="4">
+        <v>174076</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -4736,22 +4859,30 @@
       <c r="B32" s="3">
         <v>45412</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>402743</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="I32" s="4">
+        <v>2000</v>
+      </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="N32" s="4">
+        <v>25</v>
+      </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
+      <c r="R32" s="4">
+        <v>207552</v>
+      </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -4780,8 +4911,1043 @@
       </c>
       <c r="C34" s="7">
         <f t="shared" ref="C34:R34" si="0">SUM(C3:C33)</f>
+        <v>2961067</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="O34" s="7">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="P34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="7">
+        <f t="shared" si="0"/>
+        <v>2920931</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="8">
+        <f>D34*9+E34*69+F34*49+G34*14+H34*14+I34*19+J34*20+K34*29+L34*29+M34*50</f>
+        <v>429000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>1750000</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40">
+        <f>E36-E38</f>
+        <v>-1321000</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="C36:D36"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F81B120-23A5-440A-8442-11EF256E39EB}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45413</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45414</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45415</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5236</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
+        <v>129016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45416</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4">
+        <v>120964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45417</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <v>109190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45418</v>
+      </c>
+      <c r="C8" s="4">
+        <v>124675</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
+        <v>114495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45419</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45420</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11">
+        <v>45421</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45422</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45423</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45424</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45425</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45426</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45427</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="11">
+        <v>45428</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45429</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45430</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45431</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45432</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45433</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45434</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11">
+        <v>45435</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45436</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45437</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45438</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45439</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45440</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45441</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="11">
+        <v>45442</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45443</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="7">
+        <f t="shared" ref="C34:R34" si="0">SUM(C3:C33)</f>
+        <v>129911</v>
+      </c>
       <c r="D34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4840,7 +6006,7 @@
       </c>
       <c r="R34" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>473665</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">

--- a/Daily_Work/Daily Purchase.xlsx
+++ b/Daily_Work/Daily Purchase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F620A0-E52C-4DBF-BFE6-ADE45DA1F32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483CAE05-8EF4-464F-A2C7-DA19BA8B01CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5088,8 +5088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F81B120-23A5-440A-8442-11EF256E39EB}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5346,7 +5346,9 @@
       <c r="B9" s="3">
         <v>45419</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>155844</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -5361,7 +5363,9 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="R9" s="4">
+        <v>124717</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -5370,7 +5374,9 @@
       <c r="B10" s="3">
         <v>45420</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>195718</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -5385,7 +5391,9 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="R10" s="4">
+        <v>164217</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -5433,7 +5441,9 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="4">
+        <v>105344</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -5442,7 +5452,9 @@
       <c r="B13" s="3">
         <v>45423</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4">
+        <v>103896</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -5457,7 +5469,9 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="R13" s="4">
+        <v>76256</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -5466,7 +5480,9 @@
       <c r="B14" s="3">
         <v>45424</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <v>124675</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -5481,7 +5497,9 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="R14" s="4">
+        <v>118950</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -5490,7 +5508,9 @@
       <c r="B15" s="3">
         <v>45425</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4">
+        <v>109090</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -5505,7 +5525,9 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="R15" s="4">
+        <v>117110</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -5514,7 +5536,9 @@
       <c r="B16" s="3">
         <v>45426</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4">
+        <v>51948</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -5529,7 +5553,9 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="4">
+        <v>121595</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -5553,7 +5579,9 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="R17" s="4">
+        <v>59752</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -5946,7 +5974,7 @@
       </c>
       <c r="C34" s="7">
         <f t="shared" ref="C34:R34" si="0">SUM(C3:C33)</f>
-        <v>129911</v>
+        <v>871082</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="0"/>
@@ -6006,7 +6034,7 @@
       </c>
       <c r="R34" s="7">
         <f t="shared" si="0"/>
-        <v>473665</v>
+        <v>1361606</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
